--- a/ESPN sports website/IPL/Kolkata Knight Riders/Harshit Rana.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Harshit Rana.xlsx
@@ -445,7 +445,7 @@
         <v>Harshit Rana</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -457,19 +457,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>0.00</v>
+        <v>200.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Delhi Capitals</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J2" t="str">
-        <v>April 28, 2022</v>
+        <v>May 07, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
+        <v>Super Giants won by 75 runs</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>Harshit Rana</v>
       </c>
       <c r="C3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>200.00</v>
+        <v>0.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>May 07, 2022</v>
+        <v>April 28, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Super Giants won by 75 runs</v>
+        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
       </c>
     </row>
   </sheetData>
